--- a/system/management/utility/dataDebugging/studentsFile.xlsx
+++ b/system/management/utility/dataDebugging/studentsFile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="0" windowWidth="29180" windowHeight="19300" tabRatio="500"/>
+    <workbookView xWindow="2640" yWindow="21580" windowWidth="29180" windowHeight="19300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="227">
   <si>
     <t>MN</t>
   </si>
@@ -680,13 +680,34 @@
   </si>
   <si>
     <t>address_contact. AddressTypeCode</t>
+  </si>
+  <si>
+    <t>HK</t>
+  </si>
+  <si>
+    <t>Feuchtenberger</t>
+  </si>
+  <si>
+    <t>Eli</t>
+  </si>
+  <si>
+    <t>Joseph</t>
+  </si>
+  <si>
+    <t>Comparison</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>student name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -753,8 +774,15 @@
       <color rgb="FF3F3F76"/>
       <name val="Source Sans Pro"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -782,8 +810,14 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -886,8 +920,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="52">
+  <cellStyleXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -940,8 +996,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="5" fillId="4" borderId="1" xfId="11" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1003,8 +1067,38 @@
     <xf numFmtId="1" fontId="4" fillId="3" borderId="0" xfId="10" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="1" fontId="8" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="11" xfId="11" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="10" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="4" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="52">
+  <cellStyles count="60">
     <cellStyle name="Bad" xfId="10" builtinId="27"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -1030,6 +1124,10 @@
     <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="9" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
@@ -1055,6 +1153,10 @@
     <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="48" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
     <cellStyle name="Input" xfId="11" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1385,10 +1487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:BT43"/>
+  <dimension ref="A2:BT46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.6640625" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -1396,12 +1498,12 @@
     <col min="1" max="1" width="31.5" style="3" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" style="3" customWidth="1"/>
     <col min="3" max="3" width="27.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" style="3"/>
+    <col min="4" max="4" width="21.1640625" style="3" customWidth="1"/>
     <col min="5" max="5" width="20.5" style="3" customWidth="1"/>
     <col min="6" max="6" width="23.6640625" style="3" customWidth="1"/>
     <col min="7" max="7" width="27.33203125" style="3" customWidth="1"/>
     <col min="8" max="9" width="16.6640625" style="3"/>
-    <col min="10" max="10" width="12" style="3" customWidth="1"/>
+    <col min="10" max="10" width="21.6640625" style="3" customWidth="1"/>
     <col min="11" max="11" width="16.6640625" style="3"/>
     <col min="12" max="12" width="13.33203125" style="3" customWidth="1"/>
     <col min="13" max="16384" width="16.6640625" style="3"/>
@@ -1601,100 +1703,76 @@
     </row>
     <row r="6" spans="1:60">
       <c r="A6" s="7">
-        <v>2888</v>
+        <v>768</v>
       </c>
       <c r="B6" s="3">
         <v>1</v>
       </c>
       <c r="C6" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D6" s="3">
         <v>2014</v>
       </c>
-      <c r="E6" s="3">
-        <v>3</v>
-      </c>
       <c r="G6" s="5">
-        <v>201503</v>
+        <v>240</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>62</v>
       </c>
       <c r="I6" s="3">
-        <v>2888001150034</v>
-      </c>
-      <c r="J6" s="3">
-        <v>12</v>
+        <v>769030005814</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>220</v>
       </c>
       <c r="K6" s="3">
-        <v>2015</v>
+        <v>2027</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>63</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>180</v>
+        <v>221</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>181</v>
+        <v>222</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="T6" s="3">
-        <v>56221</v>
-      </c>
-      <c r="U6" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="V6" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="W6" s="3" t="s">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="X6" s="3">
-        <v>2888</v>
+        <v>2769</v>
       </c>
       <c r="Y6" s="3">
         <v>1</v>
       </c>
       <c r="AC6" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AD6" s="3">
         <v>11</v>
       </c>
       <c r="AF6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI6" s="3">
-        <v>35362</v>
+        <v>39728</v>
       </c>
       <c r="AK6" s="3" t="s">
         <v>64</v>
       </c>
       <c r="AL6" s="3" t="s">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="AM6" s="3">
+        <v>4</v>
+      </c>
+      <c r="AN6" s="3">
+        <v>31</v>
+      </c>
+      <c r="AO6" s="3">
         <v>1</v>
-      </c>
-      <c r="AN6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO6" s="3">
-        <v>0</v>
       </c>
       <c r="AP6" s="3" t="s">
         <v>64</v>
@@ -1719,1152 +1797,1392 @@
       </c>
     </row>
     <row r="7" spans="1:60">
-      <c r="A7" s="3">
-        <v>2888</v>
-      </c>
-      <c r="B7" s="3">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3">
-        <v>3</v>
-      </c>
-      <c r="D7" s="3">
-        <v>2014</v>
-      </c>
-      <c r="E7" s="3">
-        <v>3</v>
-      </c>
-      <c r="G7" s="5">
-        <v>201903</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I7" s="3">
-        <v>2888001201903</v>
-      </c>
-      <c r="J7" s="3">
-        <v>8</v>
-      </c>
-      <c r="K7" s="3">
-        <v>2019</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="S7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="T7" s="3">
-        <v>56221</v>
-      </c>
-      <c r="U7" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="V7" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="W7" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="X7" s="3">
-        <v>2888</v>
-      </c>
-      <c r="Y7" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC7" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD7" s="3">
-        <v>11</v>
-      </c>
-      <c r="AF7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="3">
-        <v>36789</v>
-      </c>
-      <c r="AK7" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AL7" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AM7" s="3">
-        <v>1</v>
-      </c>
-      <c r="AN7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP7" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AQ7" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AR7" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AS7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AT7" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AU7" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AV7" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:60">
       <c r="G8" s="5"/>
     </row>
-    <row r="13" spans="1:60" ht="19">
-      <c r="A13" s="2" t="s">
+    <row r="9" spans="1:60">
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:60" ht="19">
+      <c r="A10" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:60" s="4" customFormat="1">
-      <c r="A14" s="4" t="s">
+    <row r="11" spans="1:60" s="4" customFormat="1">
+      <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="J11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="4" t="s">
+      <c r="L11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="M14" s="4" t="s">
+      <c r="M11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="N14" s="4" t="s">
+      <c r="N11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O14" s="4" t="s">
+      <c r="O11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="P14" s="4" t="s">
+      <c r="P11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="Q14" s="4" t="s">
+      <c r="Q11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="R14" s="4" t="s">
+      <c r="R11" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="S14" s="4" t="s">
+      <c r="S11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="T14" s="4" t="s">
+      <c r="T11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="U14" s="4" t="s">
+      <c r="U11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="V14" s="4" t="s">
+      <c r="V11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="W14" s="4" t="s">
+      <c r="W11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="X14" s="4" t="s">
+      <c r="X11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Y14" s="4" t="s">
+      <c r="Y11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="Z14" s="4" t="s">
+      <c r="Z11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AA14" s="4" t="s">
+      <c r="AA11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AB14" s="4" t="s">
+      <c r="AB11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AC14" s="4" t="s">
+      <c r="AC11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AD14" s="4" t="s">
+      <c r="AD11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AE14" s="4" t="s">
+      <c r="AE11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AF14" s="4" t="s">
+      <c r="AF11" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AG14" s="4" t="s">
+      <c r="AG11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AH14" s="4" t="s">
+      <c r="AH11" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AI14" s="4" t="s">
+      <c r="AI11" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AJ14" s="4" t="s">
+      <c r="AJ11" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AK14" s="4" t="s">
+      <c r="AK11" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AL14" s="4" t="s">
+      <c r="AL11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AM14" s="4" t="s">
+      <c r="AM11" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AN14" s="4" t="s">
+      <c r="AN11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AO14" s="4" t="s">
+      <c r="AO11" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AP14" s="4" t="s">
+      <c r="AP11" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AQ14" s="4" t="s">
+      <c r="AQ11" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AR14" s="4" t="s">
+      <c r="AR11" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AS14" s="4" t="s">
+      <c r="AS11" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AT14" s="4" t="s">
+      <c r="AT11" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AU14" s="4" t="s">
+      <c r="AU11" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AV14" s="4" t="s">
+      <c r="AV11" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AW14" s="4" t="s">
+      <c r="AW11" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="AX14" s="4" t="s">
+      <c r="AX11" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="AY14" s="4" t="s">
+      <c r="AY11" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="AZ14" s="4" t="s">
+      <c r="AZ11" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="BA14" s="4" t="s">
+      <c r="BA11" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="BB14" s="4" t="s">
+      <c r="BB11" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="BC14" s="4" t="s">
+      <c r="BC11" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="BD14" s="4" t="s">
+      <c r="BD11" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="BE14" s="4" t="s">
+      <c r="BE11" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="BF14" s="4" t="s">
+      <c r="BF11" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="BG14" s="4" t="s">
+      <c r="BG11" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="BH14" s="4" t="s">
+      <c r="BH11" s="4" t="s">
         <v>61</v>
       </c>
     </row>
+    <row r="12" spans="1:60">
+      <c r="A12" s="7">
+        <v>768</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3">
+        <v>10</v>
+      </c>
+      <c r="D12" s="3">
+        <v>2014</v>
+      </c>
+      <c r="G12" s="5">
+        <v>240</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I12" s="3">
+        <v>769030005814</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="K12" s="3">
+        <v>2027</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="X12" s="3">
+        <v>2769</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="3">
+        <v>5</v>
+      </c>
+      <c r="AD12" s="3">
+        <v>11</v>
+      </c>
+      <c r="AF12" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI12" s="3">
+        <v>39728</v>
+      </c>
+      <c r="AK12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM12" s="3">
+        <v>4</v>
+      </c>
+      <c r="AN12" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO12" s="3">
+        <v>1</v>
+      </c>
+      <c r="AP12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AQ12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AU12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AV12" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:60">
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:60">
+      <c r="G14" s="30"/>
+    </row>
     <row r="15" spans="1:60">
-      <c r="A15" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G15" s="5"/>
-    </row>
-    <row r="16" spans="1:60">
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="1:72">
-      <c r="G17" s="5"/>
-    </row>
-    <row r="21" spans="1:72" ht="19">
-      <c r="A21" s="2" t="s">
+      <c r="G15" s="29"/>
+    </row>
+    <row r="16" spans="1:60" s="22" customFormat="1">
+      <c r="A16" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="B16" s="21" t="str">
+        <f>IF(SUM(B17:BH17)&gt;0, SUM(B17:BH17)&amp;" ERRORS", "GOOD")</f>
+        <v>1 ERRORS</v>
+      </c>
+    </row>
+    <row r="17" spans="1:72" s="23" customFormat="1">
+      <c r="A17" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="B17" s="23" t="str">
+        <f>IF(B6=B12, "ok", 1)</f>
+        <v>ok</v>
+      </c>
+      <c r="C17" s="23" t="str">
+        <f>IF(C6=C12, "ok", 1)</f>
+        <v>ok</v>
+      </c>
+      <c r="D17" s="23" t="str">
+        <f>IF(D6=D12, "ok", 1)</f>
+        <v>ok</v>
+      </c>
+      <c r="E17" s="23" t="str">
+        <f>IF(E6=E12, "ok", 1)</f>
+        <v>ok</v>
+      </c>
+      <c r="F17" s="23" t="str">
+        <f>IF(F6=F12, "ok", 1)</f>
+        <v>ok</v>
+      </c>
+      <c r="G17" s="23" t="str">
+        <f>IF(G6=G12, "ok", 1)</f>
+        <v>ok</v>
+      </c>
+      <c r="H17" s="23" t="str">
+        <f>IF(H6=H12, "ok", 1)</f>
+        <v>ok</v>
+      </c>
+      <c r="I17" s="23" t="str">
+        <f>IF(I6=I12, "ok", 1)</f>
+        <v>ok</v>
+      </c>
+      <c r="J17" s="23" t="str">
+        <f>IF(J6=J12, "ok", 1)</f>
+        <v>ok</v>
+      </c>
+      <c r="K17" s="23" t="str">
+        <f>IF(K6=K12, "ok", 1)</f>
+        <v>ok</v>
+      </c>
+      <c r="L17" s="23" t="str">
+        <f>IF(L6=L12, "ok", 1)</f>
+        <v>ok</v>
+      </c>
+      <c r="M17" s="23" t="str">
+        <f>IF(M6=M12, "ok", 1)</f>
+        <v>ok</v>
+      </c>
+      <c r="N17" s="23" t="str">
+        <f>IF(N6=N12, "ok", 1)</f>
+        <v>ok</v>
+      </c>
+      <c r="O17" s="23" t="str">
+        <f>IF(O6=O12, "ok", 1)</f>
+        <v>ok</v>
+      </c>
+      <c r="P17" s="23" t="str">
+        <f>IF(P6=P12, "ok", 1)</f>
+        <v>ok</v>
+      </c>
+      <c r="Q17" s="23" t="str">
+        <f>IF(Q6=Q12, "ok", 1)</f>
+        <v>ok</v>
+      </c>
+      <c r="R17" s="23" t="str">
+        <f>IF(R6=R12, "ok", 1)</f>
+        <v>ok</v>
+      </c>
+      <c r="S17" s="23" t="str">
+        <f>IF(S6=S12, "ok", 1)</f>
+        <v>ok</v>
+      </c>
+      <c r="T17" s="23" t="str">
+        <f>IF(T6=T12, "ok", 1)</f>
+        <v>ok</v>
+      </c>
+      <c r="U17" s="23" t="str">
+        <f>IF(U6=U12, "ok", 1)</f>
+        <v>ok</v>
+      </c>
+      <c r="V17" s="23" t="str">
+        <f>IF(V6=V12, "ok", 1)</f>
+        <v>ok</v>
+      </c>
+      <c r="W17" s="23" t="str">
+        <f>IF(W6=W12, "ok", 1)</f>
+        <v>ok</v>
+      </c>
+      <c r="X17" s="23" t="str">
+        <f>IF(X6=X12, "ok", 1)</f>
+        <v>ok</v>
+      </c>
+      <c r="Y17" s="23" t="str">
+        <f>IF(Y6=Y12, "ok", 1)</f>
+        <v>ok</v>
+      </c>
+      <c r="Z17" s="23" t="str">
+        <f>IF(Z6=Z12, "ok", 1)</f>
+        <v>ok</v>
+      </c>
+      <c r="AA17" s="23" t="str">
+        <f>IF(AA6=AA12, "ok", 1)</f>
+        <v>ok</v>
+      </c>
+      <c r="AB17" s="23" t="str">
+        <f>IF(AB6=AB12, "ok", 1)</f>
+        <v>ok</v>
+      </c>
+      <c r="AC17" s="23" t="str">
+        <f>IF(AC6=AC12, "ok", 1)</f>
+        <v>ok</v>
+      </c>
+      <c r="AD17" s="23" t="str">
+        <f>IF(AD6=AD12, "ok", 1)</f>
+        <v>ok</v>
+      </c>
+      <c r="AE17" s="23" t="str">
+        <f>IF(AE6=AE12, "ok", 1)</f>
+        <v>ok</v>
+      </c>
+      <c r="AF17" s="23" t="str">
+        <f>IF(AF6=AF12, "ok", 1)</f>
+        <v>ok</v>
+      </c>
+      <c r="AG17" s="23" t="str">
+        <f>IF(AG6=AG12, "ok", 1)</f>
+        <v>ok</v>
+      </c>
+      <c r="AH17" s="23" t="str">
+        <f>IF(AH6=AH12, "ok", 1)</f>
+        <v>ok</v>
+      </c>
+      <c r="AI17" s="23" t="str">
+        <f>IF(AI6=AI12, "ok", 1)</f>
+        <v>ok</v>
+      </c>
+      <c r="AJ17" s="23" t="str">
+        <f>IF(AJ6=AJ12, "ok", 1)</f>
+        <v>ok</v>
+      </c>
+      <c r="AK17" s="23" t="str">
+        <f>IF(AK6=AK12, "ok", 1)</f>
+        <v>ok</v>
+      </c>
+      <c r="AL17" s="23" t="str">
+        <f>IF(AL6=AL12, "ok", 1)</f>
+        <v>ok</v>
+      </c>
+      <c r="AM17" s="23" t="str">
+        <f>IF(AM6=AM12, "ok", 1)</f>
+        <v>ok</v>
+      </c>
+      <c r="AN17" s="23">
+        <f>IF(AN6=AN12, "ok", 1)</f>
+        <v>1</v>
+      </c>
+      <c r="AO17" s="23" t="str">
+        <f>IF(AO6=AO12, "ok", 1)</f>
+        <v>ok</v>
+      </c>
+      <c r="AP17" s="23" t="str">
+        <f>IF(AP6=AP12, "ok", 1)</f>
+        <v>ok</v>
+      </c>
+      <c r="AQ17" s="23" t="str">
+        <f>IF(AQ6=AQ12, "ok", 1)</f>
+        <v>ok</v>
+      </c>
+      <c r="AR17" s="23" t="str">
+        <f>IF(AR6=AR12, "ok", 1)</f>
+        <v>ok</v>
+      </c>
+      <c r="AS17" s="23" t="str">
+        <f>IF(AS6=AS12, "ok", 1)</f>
+        <v>ok</v>
+      </c>
+      <c r="AT17" s="23" t="str">
+        <f>IF(AT6=AT12, "ok", 1)</f>
+        <v>ok</v>
+      </c>
+      <c r="AU17" s="23" t="str">
+        <f>IF(AU6=AU12, "ok", 1)</f>
+        <v>ok</v>
+      </c>
+      <c r="AV17" s="23" t="str">
+        <f>IF(AV6=AV12, "ok", 1)</f>
+        <v>ok</v>
+      </c>
+      <c r="AW17" s="23" t="str">
+        <f>IF(AW6=AW12, "ok", 1)</f>
+        <v>ok</v>
+      </c>
+      <c r="AX17" s="23" t="str">
+        <f>IF(AX6=AX12, "ok", 1)</f>
+        <v>ok</v>
+      </c>
+      <c r="AY17" s="23" t="str">
+        <f>IF(AY6=AY12, "ok", 1)</f>
+        <v>ok</v>
+      </c>
+      <c r="AZ17" s="23" t="str">
+        <f>IF(AZ6=AZ12, "ok", 1)</f>
+        <v>ok</v>
+      </c>
+      <c r="BA17" s="23" t="str">
+        <f>IF(BA6=BA12, "ok", 1)</f>
+        <v>ok</v>
+      </c>
+      <c r="BB17" s="23" t="str">
+        <f>IF(BB6=BB12, "ok", 1)</f>
+        <v>ok</v>
+      </c>
+      <c r="BC17" s="23" t="str">
+        <f>IF(BC6=BC12, "ok", 1)</f>
+        <v>ok</v>
+      </c>
+      <c r="BD17" s="23" t="str">
+        <f>IF(BD6=BD12, "ok", 1)</f>
+        <v>ok</v>
+      </c>
+      <c r="BE17" s="23" t="str">
+        <f>IF(BE6=BE12, "ok", 1)</f>
+        <v>ok</v>
+      </c>
+      <c r="BF17" s="23" t="str">
+        <f>IF(BF6=BF12, "ok", 1)</f>
+        <v>ok</v>
+      </c>
+      <c r="BG17" s="23" t="str">
+        <f>IF(BG6=BG12, "ok", 1)</f>
+        <v>ok</v>
+      </c>
+      <c r="BH17" s="23" t="str">
+        <f>IF(BH6=BH12, "ok", 1)</f>
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="20" spans="1:72" customFormat="1" ht="15"/>
+    <row r="24" spans="1:72" ht="19">
+      <c r="A24" s="2" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="22" spans="1:72" s="4" customFormat="1">
-      <c r="A22" s="4" t="s">
+    <row r="25" spans="1:72" s="4" customFormat="1">
+      <c r="A25" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B25" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C25" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D25" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E25" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F25" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G25" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="H25" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="I22" s="4" t="s">
+      <c r="I25" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="J22" s="4" t="s">
+      <c r="J25" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="K22" s="4" t="s">
+      <c r="K25" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="L22" s="4" t="s">
+      <c r="L25" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="M22" s="4" t="s">
+      <c r="M25" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="N22" s="4" t="s">
+      <c r="N25" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="O22" s="4" t="s">
+      <c r="O25" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="P22" s="4" t="s">
+      <c r="P25" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="Q22" s="4" t="s">
+      <c r="Q25" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="R22" s="4" t="s">
+      <c r="R25" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="S22" s="4" t="s">
+      <c r="S25" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="T22" s="4" t="s">
+      <c r="T25" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="U22" s="4" t="s">
+      <c r="U25" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="V22" s="4" t="s">
+      <c r="V25" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="W22" s="4" t="s">
+      <c r="W25" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="X22" s="4" t="s">
+      <c r="X25" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="Y22" s="4" t="s">
+      <c r="Y25" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="Z22" s="4" t="s">
+      <c r="Z25" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="AA22" s="4" t="s">
+      <c r="AA25" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="AB22" s="4" t="s">
+      <c r="AB25" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="AC22" s="4" t="s">
+      <c r="AC25" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="AD22" s="4" t="s">
+      <c r="AD25" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="AE22" s="4" t="s">
+      <c r="AE25" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="AF22" s="4" t="s">
+      <c r="AF25" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="AG22" s="4" t="s">
+      <c r="AG25" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="AH22" s="4" t="s">
+      <c r="AH25" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="AI22" s="4" t="s">
+      <c r="AI25" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="AJ22" s="4" t="s">
+      <c r="AJ25" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="AK22" s="4" t="s">
+      <c r="AK25" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="AL22" s="4" t="s">
+      <c r="AL25" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="AM22" s="4" t="s">
+      <c r="AM25" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="AN22" s="4" t="s">
+      <c r="AN25" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="AO22" s="4" t="s">
+      <c r="AO25" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="AP22" s="4" t="s">
+      <c r="AP25" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="AQ22" s="4" t="s">
+      <c r="AQ25" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="AR22" s="4" t="s">
+      <c r="AR25" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="AS22" s="4" t="s">
+      <c r="AS25" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="AT22" s="4" t="s">
+      <c r="AT25" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="AU22" s="4" t="s">
+      <c r="AU25" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="AV22" s="4" t="s">
+      <c r="AV25" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="AW22" s="4" t="s">
+      <c r="AW25" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="AX22" s="4" t="s">
+      <c r="AX25" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="AY22" s="4" t="s">
+      <c r="AY25" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="AZ22" s="4" t="s">
+      <c r="AZ25" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="BA22" s="4" t="s">
+      <c r="BA25" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="BB22" s="4" t="s">
+      <c r="BB25" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="BC22" s="4" t="s">
+      <c r="BC25" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="BD22" s="4" t="s">
+      <c r="BD25" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="BE22" s="4" t="s">
+      <c r="BE25" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="BF22" s="4" t="s">
+      <c r="BF25" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="BG22" s="4" t="s">
+      <c r="BG25" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="BH22" s="4" t="s">
+      <c r="BH25" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="BI22" s="4" t="s">
+      <c r="BI25" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="BJ22" s="4" t="s">
+      <c r="BJ25" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="BK22" s="4" t="s">
+      <c r="BK25" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="BL22" s="4" t="s">
+      <c r="BL25" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="BM22" s="4" t="s">
+      <c r="BM25" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="BN22" s="4" t="s">
+      <c r="BN25" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="BO22" s="4" t="s">
+      <c r="BO25" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="BP22" s="4" t="s">
+      <c r="BP25" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="BQ22" s="4" t="s">
+      <c r="BQ25" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="BR22" s="4" t="s">
+      <c r="BR25" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="BS22" s="4" t="s">
+      <c r="BS25" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="BT22" s="4" t="s">
+      <c r="BT25" s="4" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="23" spans="1:72">
-      <c r="A23" s="7">
+    <row r="26" spans="1:72">
+      <c r="A26" s="7">
         <v>2888</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B26" s="3">
         <v>1</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C26" s="5">
         <v>249060001</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D26" s="3">
         <v>2888001201903</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E26" s="6">
         <v>3201903</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F26" s="3">
         <v>3</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G26" s="3">
         <v>2014</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H26" s="3">
         <v>2015</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I26" s="3">
         <v>8</v>
       </c>
-      <c r="J23" s="18"/>
-      <c r="L23" s="3">
+      <c r="J26" s="18"/>
+      <c r="L26" s="3">
         <v>0</v>
       </c>
-      <c r="M23" s="3">
+      <c r="M26" s="3">
         <v>0</v>
       </c>
-      <c r="N23" s="3">
+      <c r="N26" s="3">
         <v>2888</v>
       </c>
-      <c r="O23" s="3">
+      <c r="O26" s="3">
         <v>1</v>
       </c>
-      <c r="P23" s="3">
+      <c r="P26" s="3">
         <v>3</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="Q26" s="3">
         <v>0</v>
       </c>
-      <c r="R23" s="3">
+      <c r="R26" s="3">
         <v>0</v>
       </c>
-      <c r="S23" s="3">
+      <c r="S26" s="3">
         <v>100</v>
       </c>
-      <c r="V23" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="W23" s="3">
+      <c r="V26" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="W26" s="3">
         <v>0</v>
       </c>
-      <c r="X23" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y23" s="3">
+      <c r="X26" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y26" s="3">
         <v>1</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="Z26" s="3">
         <v>0</v>
       </c>
-      <c r="AA23" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC23" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD23" s="3" t="s">
+      <c r="AA26" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC26" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD26" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AE26" s="3">
         <v>1</v>
       </c>
-      <c r="AF23" s="3">
+      <c r="AF26" s="3">
         <v>36789</v>
       </c>
-      <c r="AG23" s="3">
+      <c r="AG26" s="3">
         <v>11</v>
       </c>
-      <c r="AH23" s="3">
+      <c r="AH26" s="3">
         <v>0</v>
       </c>
-      <c r="AI23" s="3">
+      <c r="AI26" s="3">
         <v>1</v>
       </c>
-      <c r="AJ23" s="3">
+      <c r="AJ26" s="3">
         <v>0</v>
       </c>
-      <c r="AK23" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AL23" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AM23" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AN23" s="3">
+      <c r="AK26" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL26" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM26" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AN26" s="3">
         <v>2888</v>
       </c>
-      <c r="AO23" s="3">
+      <c r="AO26" s="3">
         <v>1</v>
       </c>
-      <c r="AP23" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AQ23" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AU23" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AV23" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AY23" s="3" t="s">
+      <c r="AP26" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AQ26" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AU26" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AV26" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AY26" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="BA23" s="3" t="s">
+      <c r="BA26" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="BH23" s="3" t="s">
+      <c r="BH26" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="BJ23" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="BK23" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="BL23" s="3" t="s">
+      <c r="BJ26" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="BK26" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="BL26" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="BM23" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="BN23" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="BO23" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="BP23" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:72">
-      <c r="C24" s="5"/>
-    </row>
-    <row r="25" spans="1:72">
-      <c r="C25" s="5"/>
-    </row>
-    <row r="27" spans="1:72" ht="19">
-      <c r="A27" s="2" t="s">
+      <c r="BM26" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN26" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO26" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="BP26" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:72">
+      <c r="C27" s="5"/>
+    </row>
+    <row r="28" spans="1:72">
+      <c r="C28" s="5"/>
+    </row>
+    <row r="30" spans="1:72" ht="19">
+      <c r="A30" s="2" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="1:72" s="4" customFormat="1">
-      <c r="A28" s="4" t="s">
+    <row r="31" spans="1:72" s="4" customFormat="1">
+      <c r="A31" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B31" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C31" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D31" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E31" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F31" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="G31" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="H31" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="I28" s="4" t="s">
+      <c r="I31" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="J28" s="4" t="s">
+      <c r="J31" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="K28" s="4" t="s">
+      <c r="K31" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="L28" s="4" t="s">
+      <c r="L31" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="M28" s="4" t="s">
+      <c r="M31" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="N28" s="4" t="s">
+      <c r="N31" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="O28" s="4" t="s">
+      <c r="O31" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="P28" s="4" t="s">
+      <c r="P31" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="Q28" s="4" t="s">
+      <c r="Q31" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="R28" s="4" t="s">
+      <c r="R31" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="S28" s="4" t="s">
+      <c r="S31" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="T28" s="4" t="s">
+      <c r="T31" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="U28" s="4" t="s">
+      <c r="U31" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="V28" s="4" t="s">
+      <c r="V31" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="W28" s="4" t="s">
+      <c r="W31" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="X28" s="4" t="s">
+      <c r="X31" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="Y28" s="4" t="s">
+      <c r="Y31" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="Z28" s="4" t="s">
+      <c r="Z31" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="AA28" s="4" t="s">
+      <c r="AA31" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="AB28" s="4" t="s">
+      <c r="AB31" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:72">
-      <c r="A29" s="7">
+    <row r="32" spans="1:72">
+      <c r="A32" s="7">
         <v>2888</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B32" s="3">
         <v>1</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D32" s="3">
         <v>2014</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E32" s="3">
         <v>2015</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F32" s="5">
         <v>249060001</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G32" s="3">
         <v>2888001201903</v>
       </c>
-      <c r="H29" s="6">
+      <c r="H32" s="6">
         <v>3201903</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I32" s="3">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J32" s="3">
         <v>2019</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="K32" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="L32" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="M32" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="N32" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="Q29" s="3" t="s">
+      <c r="Q32" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U32" s="3">
         <v>36789</v>
       </c>
-      <c r="W29" s="3" t="s">
+      <c r="W32" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AA29" s="3" t="s">
+      <c r="AA32" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AB32" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:72">
-      <c r="A30" s="3">
+    <row r="33" spans="1:32">
+      <c r="A33" s="3">
         <v>2888</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B33" s="3">
         <v>1</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D33" s="3">
         <v>2014</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E33" s="3">
         <v>2015</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F33" s="5">
         <v>52030001</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G33" s="3">
         <v>2888001150034</v>
       </c>
-      <c r="H30" s="6">
+      <c r="H33" s="6">
         <v>1201503</v>
       </c>
-      <c r="I30" s="3">
+      <c r="I33" s="3">
         <v>12</v>
       </c>
-      <c r="J30" s="3">
+      <c r="J33" s="3">
         <v>2015</v>
       </c>
-      <c r="K30" s="3" t="s">
+      <c r="K33" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="L30" s="3" t="s">
+      <c r="L33" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="M30" s="3" t="s">
+      <c r="M33" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="N30" s="3" t="s">
+      <c r="N33" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="Q30" s="3" t="s">
+      <c r="Q33" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="U30" s="3">
+      <c r="U33" s="3">
         <v>35362</v>
       </c>
-      <c r="W30" s="3" t="s">
+      <c r="W33" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AA30" s="3" t="s">
+      <c r="AA33" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="AB30" s="3">
+      <c r="AB33" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:72">
-      <c r="F31" s="5"/>
-    </row>
-    <row r="32" spans="1:72" ht="19">
-      <c r="A32" s="2" t="s">
+    <row r="34" spans="1:32">
+      <c r="F34" s="5"/>
+    </row>
+    <row r="35" spans="1:32" ht="19">
+      <c r="A35" s="2" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="33" spans="1:32" s="4" customFormat="1">
-      <c r="A33" s="4" t="s">
+    <row r="36" spans="1:32" s="4" customFormat="1">
+      <c r="A36" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B36" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C36" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D36" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E36" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="F36" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="G36" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="H36" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="I33" s="4" t="s">
+      <c r="I36" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="J33" s="4" t="s">
+      <c r="J36" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="K33" s="4" t="s">
+      <c r="K36" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="L33" s="4" t="s">
+      <c r="L36" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="M33" s="4" t="s">
+      <c r="M36" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="N33" s="4" t="s">
+      <c r="N36" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="O33" s="4" t="s">
+      <c r="O36" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="P33" s="4" t="s">
+      <c r="P36" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="Q33" s="4" t="s">
+      <c r="Q36" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="R33" s="4" t="s">
+      <c r="R36" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="S33" s="4" t="s">
+      <c r="S36" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="T33" s="4" t="s">
+      <c r="T36" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="U33" s="4" t="s">
+      <c r="U36" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="V33" s="4" t="s">
+      <c r="V36" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="W33" s="4" t="s">
+      <c r="W36" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="X33" s="4" t="s">
+      <c r="X36" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="Y33" s="4" t="s">
+      <c r="Y36" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="Z33" s="4" t="s">
+      <c r="Z36" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="AA33" s="4" t="s">
+      <c r="AA36" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="AB33" s="4" t="s">
+      <c r="AB36" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="AC33" s="4" t="s">
+      <c r="AC36" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="AD33" s="4" t="s">
+      <c r="AD36" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="AE33" s="4" t="s">
+      <c r="AE36" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="AF33" s="4" t="s">
+      <c r="AF36" s="4" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="34" spans="1:32">
-      <c r="A34" s="7">
+    <row r="37" spans="1:32">
+      <c r="A37" s="7">
         <v>2888</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B37" s="3">
         <v>1</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C37" s="5">
         <v>249060001</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D37" s="3">
         <v>2888001201903</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E37" s="6">
         <v>3201903</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G37" s="3">
         <v>3</v>
       </c>
-      <c r="H34" s="18" t="s">
+      <c r="H37" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="I34" s="3" t="s">
+      <c r="I37" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="L34" s="3" t="s">
+      <c r="L37" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="M34" s="3" t="s">
+      <c r="M37" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="N34" s="3" t="s">
+      <c r="N37" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="O34" s="3">
+      <c r="O37" s="3">
         <v>56221</v>
       </c>
-      <c r="V34" s="3" t="s">
+      <c r="V37" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="X34" s="3" t="s">
+      <c r="X37" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="Y34" s="3" t="s">
+      <c r="Y37" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="Z34" s="3" t="s">
+      <c r="Z37" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="AA34" s="3" t="s">
+      <c r="AA37" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="AB34" s="3" t="s">
+      <c r="AB37" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="AC34" s="3" t="s">
+      <c r="AC37" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AD34" s="3" t="s">
+      <c r="AD37" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="AE34" s="3" t="s">
+      <c r="AE37" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="AF34" s="3" t="s">
+      <c r="AF37" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="39" spans="1:32" ht="48">
-      <c r="C39" s="8" t="s">
+    <row r="42" spans="1:32" ht="48">
+      <c r="C42" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="D42" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="D39" s="9"/>
-      <c r="E39" s="10" t="s">
+      <c r="E42" s="9"/>
+      <c r="F42" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="F39" s="9"/>
-      <c r="G39" s="10" t="s">
+      <c r="G42" s="9"/>
+      <c r="H42" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="H39" s="9"/>
-      <c r="I39" s="11" t="s">
+      <c r="I42" s="9"/>
+      <c r="J42" s="11" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="40" spans="1:32">
-      <c r="C40" s="1">
-        <f>C34</f>
+    <row r="43" spans="1:32">
+      <c r="C43" s="28" t="str">
+        <f>N6&amp;" "&amp;M6</f>
+        <v>Eli Feuchtenberger</v>
+      </c>
+      <c r="D43" s="27">
+        <f>C37</f>
         <v>249060001</v>
       </c>
-      <c r="D40" s="13"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="20">
-        <f t="shared" ref="G40:G42" si="0">J23</f>
+      <c r="E43" s="13"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="20">
+        <f>J26</f>
         <v>0</v>
       </c>
-      <c r="H40" s="13"/>
-      <c r="I40" s="19" t="str">
-        <f>H34</f>
+      <c r="I43" s="13"/>
+      <c r="J43" s="19" t="str">
+        <f>H37</f>
         <v>Primary1</v>
       </c>
     </row>
-    <row r="41" spans="1:32">
-      <c r="C41" s="12"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13">
-        <f t="shared" si="0"/>
+    <row r="44" spans="1:32">
+      <c r="C44" s="25"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13">
+        <f>J27</f>
         <v>0</v>
       </c>
-      <c r="H41" s="13"/>
-      <c r="I41" s="14"/>
-    </row>
-    <row r="42" spans="1:32">
-      <c r="C42" s="12"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13">
-        <f t="shared" si="0"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="14"/>
+    </row>
+    <row r="45" spans="1:32">
+      <c r="C45" s="25"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13">
+        <f>J28</f>
         <v>0</v>
       </c>
-      <c r="H42" s="13"/>
-      <c r="I42" s="14"/>
-    </row>
-    <row r="43" spans="1:32">
-      <c r="C43" s="15"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="17"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="14"/>
+    </row>
+    <row r="46" spans="1:32">
+      <c r="C46" s="26"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="17"/>
     </row>
   </sheetData>
   <sortState ref="A1:X2094">
